--- a/data_output/gini_summary.xlsx
+++ b/data_output/gini_summary.xlsx
@@ -394,7 +394,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.5289893718418531</v>
+        <v>0.5289893718418537</v>
       </c>
     </row>
     <row r="3">
@@ -430,7 +430,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.3360110877933254</v>
+        <v>0.3360110877933248</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.332169379740399</v>
+        <v>0.3321693797403988</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.3646294412092342</v>
+        <v>0.3646294412092352</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.3281548474437634</v>
+        <v>0.3281548474437641</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.5861388036725508</v>
+        <v>0.586138803672549</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.6613775753922561</v>
+        <v>0.6613775753922593</v>
       </c>
     </row>
     <row r="10">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.7365403515280942</v>
+        <v>0.7365403515280944</v>
       </c>
     </row>
     <row r="11">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.4681500490024612</v>
+        <v>0.4681500490024603</v>
       </c>
     </row>
     <row r="12">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.6812509895356547</v>
+        <v>0.681250989535654</v>
       </c>
     </row>
     <row r="14">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.373765622071312</v>
+        <v>0.3737656220713125</v>
       </c>
     </row>
     <row r="16">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.4051884693707531</v>
+        <v>0.4051884693707541</v>
       </c>
     </row>
     <row r="17">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.9315389357979547</v>
+        <v>0.9315389357979541</v>
       </c>
     </row>
     <row r="18">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.913162951732011</v>
+        <v>0.9131629517320107</v>
       </c>
     </row>
     <row r="19">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.8034585441113454</v>
+        <v>0.8034585441113452</v>
       </c>
     </row>
     <row r="20">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.4729986504921103</v>
+        <v>0.4729986504921105</v>
       </c>
     </row>
     <row r="22">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.262287422668757</v>
+        <v>0.2622874226687569</v>
       </c>
     </row>
     <row r="24">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.3478305395969064</v>
+        <v>0.3478305395969066</v>
       </c>
     </row>
     <row r="25">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.5124190807676152</v>
+        <v>0.5124190807676163</v>
       </c>
     </row>
     <row r="26">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.7244267450297769</v>
+        <v>0.7244267450297763</v>
       </c>
     </row>
     <row r="27">
